--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB311.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB311.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>Angle between normals (degrees)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coord: normal vector scan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3560017580263839</v>
+        <v>0.3560034938780682</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.         0.31908379 0.94772651]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -458,7 +468,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.516574537504206</v>
+        <v>1.516571111967983</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.43876148  0.52155555  0.73175691]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -466,7 +481,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1963026929349266</v>
+        <v>0.1963039095234749</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.00119071  0.01282932  0.99991699]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -474,7 +494,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6034265779144103</v>
+        <v>0.6034302761849968</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[ 2.54597526e-04  2.84382834e-01 -9.58710769e-01]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -482,7 +507,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.694924746168741</v>
+        <v>1.694921828085868</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.72390296 0.28901965 0.62644405]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -490,7 +520,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9826072594854427</v>
+        <v>0.982589045564234</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.73129183 -0.27139518  0.62574509]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -498,7 +533,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.588817007665277</v>
+        <v>0.588816101442688</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.         0.31523022 0.94901523]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -506,7 +546,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8121572258746652</v>
+        <v>0.8121553091191543</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.31152858  0.95023678]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -514,7 +559,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.555860435136448</v>
+        <v>2.555862846884493</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.72303144  0.24963508  0.64413342]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -522,7 +572,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.827681021462704</v>
+        <v>1.827680287833167</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[ 0.72947005 -0.27563522  0.62601811]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -530,7 +585,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6637602405753732</v>
+        <v>0.6637576211436756</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-2.16747601e-04 -2.83372235e-01 -9.59009974e-01]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -538,7 +598,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.457733599078393</v>
+        <v>1.457736114015883</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.72462879 -0.29607244  0.62229754]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -546,7 +611,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.603722014811192</v>
+        <v>2.603716598398236</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.71326391 0.26845507 0.64744611]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -554,7 +624,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.186963747533092</v>
+        <v>1.18696440254348</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30530584  0.95225435]</t>
+        </is>
       </c>
     </row>
   </sheetData>
